--- a/Approximation/approximation.xlsx
+++ b/Approximation/approximation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daniil\Projects\lbsu-modeling-tasks\Approximation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FF74E-C373-497C-995A-5B79B4FE015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059321D7-8D8D-46E1-9851-359B7EF58F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="t1" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Вариант</t>
   </si>
@@ -46,12 +69,129 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>ср. кв. откл.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y (линейное)</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>Mathematica</t>
+  </si>
+  <si>
+    <r>
+      <t>Y (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Y (x</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>откл.</t>
+  </si>
+  <si>
+    <t>Вывод: Наименьшее ср. откл. Имеет линейная аппроксимация, сделанная в Вольфрам. Из этого НЕ следует, что линейная аппроксимация дает точные значения.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +199,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -91,17 +256,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,6 +496,1014 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t1'!$A$4:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t1'!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8053-4DA8-933A-2126981F60DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t1'!$A$15:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t1'!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.7250000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4416666666666629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.608333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.941666666666663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.108333333333327</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.274999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8053-4DA8-933A-2126981F60DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1342077839"/>
+        <c:axId val="1342097039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1342077839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342097039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1342097039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1342077839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>159543</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8A6886-22CC-C90A-9B82-2705C4AE96AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,107 +1769,503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <f>3-0.1*B1</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <f>3.5 + 0.1*B1</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <f>3.9 + 0.1 *B1</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <f>4.6 + 0.2 *B1</f>
         <v>5.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <f>10.5 + 0.3 * B1</f>
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <f>21.3 + 0.5 *B1</f>
         <v>23.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <f>38.7 + 0.5 *B1</f>
         <v>41.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="8">
         <f>59.7 + B1</f>
         <v>64.7</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" cm="1">
+        <f t="array" ref="A13:B13">LINEST(B4:B11,A4:A11)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="B13" s="4">
+        <v>-16.975000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="B15" s="14" cm="1">
+        <f t="array" ref="B15:B21">TREND(B4:B11,A4:A11,A15:A21)</f>
+        <v>-4.7250000000000014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="B16" s="16">
+        <v>3.4416666666666629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="B17" s="16">
+        <v>11.608333333333331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="15">
+        <v>4.5</v>
+      </c>
+      <c r="B18" s="16">
+        <v>19.774999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="B19" s="16">
+        <v>27.941666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="B20" s="16">
+        <v>36.108333333333327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="17">
+        <v>7.5</v>
+      </c>
+      <c r="B21" s="18">
+        <v>44.274999999999991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="19">
+        <f>_xlfn.STDEV.P(_xlfn.ANCHORARRAY(B15))</f>
+        <v>16.333333333333336</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DC0185-B0B3-435D-9767-8BA60F0AC857}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="B3" s="21" cm="1">
+        <f t="array" ref="B3:B9">'t1'!B15:B21</f>
+        <v>-4.7250000000000014</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-4.7249999999999996</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.9312499999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.1100400000000001</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3.8268399999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.7633800000000002</v>
+      </c>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="21">
+        <v>2.5</v>
+      </c>
+      <c r="B4" s="21">
+        <v>3.4416666666666629</v>
+      </c>
+      <c r="C4" s="21">
+        <v>3.4416699999999998</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.88958300000000001</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3.3926099999999999</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4.0761200000000004</v>
+      </c>
+      <c r="G4" s="21">
+        <v>4.4954099999999997</v>
+      </c>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>3.5</v>
+      </c>
+      <c r="B5" s="21">
+        <v>11.608333333333331</v>
+      </c>
+      <c r="C5" s="21">
+        <v>11.6083</v>
+      </c>
+      <c r="D5" s="21">
+        <v>2.9312499999999999</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.8979200000000001</v>
+      </c>
+      <c r="F5" s="21">
+        <v>4.5621099999999997</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4.51572</v>
+      </c>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>19.774999999999999</v>
+      </c>
+      <c r="C6" s="21">
+        <v>19.774999999999999</v>
+      </c>
+      <c r="D6" s="21">
+        <v>9.0562500000000004</v>
+      </c>
+      <c r="E6" s="21">
+        <v>9.0562500000000004</v>
+      </c>
+      <c r="F6" s="21">
+        <v>8.2933599999999998</v>
+      </c>
+      <c r="G6" s="21">
+        <v>8.0711899999999996</v>
+      </c>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
+        <v>5.5</v>
+      </c>
+      <c r="B7" s="21">
+        <v>27.941666666666663</v>
+      </c>
+      <c r="C7" s="21">
+        <v>27.941700000000001</v>
+      </c>
+      <c r="D7" s="21">
+        <v>19.264600000000002</v>
+      </c>
+      <c r="E7" s="21">
+        <v>17.297899999999998</v>
+      </c>
+      <c r="F7" s="21">
+        <v>17.076699999999999</v>
+      </c>
+      <c r="G7" s="21">
+        <v>17.2712</v>
+      </c>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>6.5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>36.108333333333327</v>
+      </c>
+      <c r="C8" s="2">
+        <v>36.1083</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33.5563</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.0532</v>
+      </c>
+      <c r="F8" s="2">
+        <v>31.732600000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>31.6876</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>7.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44.274999999999991</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44.274999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>51.9313</v>
+      </c>
+      <c r="E9" s="2">
+        <v>51.752499999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>52.310400000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <v>52.454799999999999</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <f>'t1'!B22</f>
+        <v>16.333333333333336</v>
+      </c>
+      <c r="C10" s="27">
+        <f>_xlfn.STDEV.P(C3:C9)</f>
+        <v>16.333332857156915</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:H10" si="0">_xlfn.STDEV.P(D3:D9)</f>
+        <v>17.798858153152224</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>16.87189185062601</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>17.045157938962717</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>17.182797860710007</v>
+      </c>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A12:G16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>